--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/41_İzmir_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/41_İzmir_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0AB063-E0DA-4170-8D48-665E3BCEA3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9844DB-74B6-4368-9F27-0F43BC3B2C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{503F3B71-4247-4834-BD66-7C53AB6EF5A6}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{A157927C-68A6-47F4-AAB9-D2541A5F2B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -949,13 +949,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9CADE2AD-4E25-4D50-BCC5-CD4DD50F4C2B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B205344C-8611-4E89-9A20-949F389642D2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7B877CA4-EE4B-4088-B1DD-4161476E9933}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8BD59003-C723-4362-ABF6-3C9C02FFAF84}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4D5DA796-4A1F-4017-9469-D2698845F04F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A11F94E5-CFB4-4634-A019-3E4E957B9470}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8D386158-2C0F-4650-870E-D9548CEC683C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2549D927-E43D-4E92-B999-87A831376858}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{468977A8-99CD-490E-A516-79CFAC5683A5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B0604A5A-6A3C-4D14-BFA7-2A917C7B2C59}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{37B637F6-3778-49D7-A38C-CAAAD7265E0B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{21127210-2ACE-4FE7-B2FE-5D109029F8D0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2D06E054-BBC5-43BC-A8EC-DC5E0517BFF9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DA0D7522-CE79-4C50-B37A-36D7E2435804}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377181B-70B9-40C4-8645-F8E22FFC598F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5578F8-1B2E-4D32-B24E-FA93CD530CB3}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2615,18 +2615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CF467EA-DFCF-4EED-BFBF-DDCA649AC2A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE9C84A3-F03F-49B5-8C6C-9F2EFA9839F4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA056AA3-5454-40CB-9983-D2A8F857F2BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E876CA34-12B6-42F9-8EB9-EC94057B34DA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DA44B0F7-D154-45C6-9B08-FE1A42B0EAD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F9B4C5F-72BB-428A-9191-176165E9C597}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F3D1D52-5548-45F9-89B1-2A28137F2B7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{097053A6-DC2F-4C3B-B677-19CDA3E840CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6A51CB0-DDB1-4487-99FB-B48A99B834DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F802E7CB-F396-458D-AE2E-FAA6438C1C7B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69565991-070E-489C-9226-821E4CD3D416}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EA6EA1C-331B-4C99-89EA-8F037AD0484D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{789096BF-FC42-4325-8B81-594421367169}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0FE5ABC-4079-4214-B09A-2F77E746234B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E798A8F8-2598-4F73-99CE-C1FB2AD8483D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05DAA073-BD31-4911-AB2F-EB07E2FD93EE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A57DAF4C-D06A-4A37-90EC-311AEFF62625}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81A35474-9F0A-4F22-8875-499A45CDC74F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95D64CDA-06D8-4665-945D-1913EED99C39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC4DEF8B-D1EA-43EB-8B27-66D71794AB14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31A54C1B-A6F3-4E7D-8339-9DE0DEDE5B6C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46D02C87-8497-49FB-B2BF-EDBBDDBE6B59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F764D9D-F752-4C71-81B0-11FD76F64DEE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FFE45EA-3CB2-49B2-8AE3-13633FC63479}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F554FA-F4C2-4C0B-B4E8-1CEFF464C7C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC988775-8A5F-419A-B28F-CB5846BB42E6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3910,18 +3910,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC78BEBB-034E-418C-8C12-BF9FB13200A1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{040D05F8-76C1-48B3-A2D8-4AAA83C6E957}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE7B1703-2198-405D-908C-2F1EF6EFD4E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{291EDBA2-129D-49AC-B9D2-9E5B2E8DBA33}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B408411E-070B-4457-9B77-34A1B8CCDBB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1309EFD-6010-4778-AC9B-385F04BCFB8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B94E2F8-4648-48C9-AA3B-C16ADC6FDCD2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9AF63FBF-D340-432B-9EE0-58BE16DDAB36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40E4D945-A629-4BE6-A0D3-1BEFA6AA246B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62C67FBE-E771-4823-8C89-01D697FFF996}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D049C095-8249-4FC5-A476-6234B3BBE113}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{678BFEF5-16A9-48A4-8AD4-8EA848128202}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40B95A9B-C363-4E8A-8F88-BC8DECAAA2A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D1E317B-0941-446C-846B-7771F6C5F436}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA504106-031A-4769-8C60-89749AF61CE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97E19FFD-697B-4247-B71F-E9468A130083}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{79C43FE3-2433-43C2-9443-628F244F677F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C594751-B3D7-4425-93ED-6944EDCD7B17}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03D9FAEE-5127-4473-959E-7EA9B29C8D4D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7F8CD0F-EDDD-4E2E-8E75-7103E769D8A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44D59C03-7460-420B-B4D0-07501073B321}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F46C3325-1BE1-497C-B1EB-B42ED8409928}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E735C869-878D-4FC7-8325-0B980896370D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCE259B5-3B9A-4C07-B10F-FD5E39DEC60C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3934,7 +3934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA2E3D9-6C28-497D-B9A5-DC21BEF64739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE619B32-69F4-458A-8516-3476EA28E96B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5201,18 +5201,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B4D8DB1-D983-4D73-BA6E-B89F2634AA27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE7D35AA-5941-475D-9620-2197A1DFABDE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1AEE2D8-BB16-46C9-8540-76513675DC41}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63E28B2E-4078-4D2A-9F99-2A89A4826B82}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{995F832F-2020-4771-A032-A0F2FD581325}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F60A63EF-6E9F-49C4-9CEC-6384494083C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8674837C-0F31-46A1-8182-34FB2305850E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC88C43C-8F24-4616-8F87-E1C6D0D22284}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B99C348-8764-4D31-AA75-DFF49DD1E343}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA17AF63-BC1A-4D96-B8BD-A995610FF221}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E18628F7-218C-47D4-862F-173F070BA48A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AB41E5B-E39E-485A-B50B-E0E6F7BC1910}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0801DD5C-BF1B-477E-9FF0-121FCD3D8551}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C727C3C-93F7-4F5D-9731-047A82859C23}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E7D665B-4933-46BC-BD7A-935825689CB6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A631B1C1-292A-4DD2-AFE7-8F1251167882}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A1260983-8F41-4020-9ADE-4E1B53E0AA04}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95A44499-2DC9-4514-B2FA-BA45C290D3CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCF45D5E-1CF9-4377-9488-9AD19D8622A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9CEB6F40-6400-4417-98CE-BAA51FB2490A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3ED3BF2B-A0BF-4696-BE6A-6FDC2128D74D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6139AEF0-9452-42BF-A370-FCF38BE452E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C797F21F-7599-4786-BB54-44802E4BF22F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B381303-A7E1-4F40-BB22-3A7D44F0A74C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C124B0F3-CE2D-4D84-986B-C2CA1116CBEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904899E7-0A61-43A3-BCFF-AFB5B2DC4F21}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6487,18 +6487,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78EEB404-CBF3-4D06-9F93-CE00DF688326}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA10E4E2-C757-4751-AEEA-387343105E9A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7CFD7B1-BC35-4858-9778-6DDC061EDF53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9E7B9FC-78F9-4AC8-A94F-705CB0D86A7E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{56C310B3-D4F5-41C5-82D8-11CE90A8CB78}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B74C718F-18DB-4237-8FA2-90D996D1CDC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{746A546D-7F57-456A-B1FF-A58746B47F04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1A4B5BA-B174-4F19-B0CF-D885036821C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C578A53-C3C5-4358-A1EF-1FFC9BD0E470}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{222013BD-F351-4D21-A6AB-455BA9755FD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{017B3CA8-6B08-43D0-A205-918825F2A38F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34F85651-6AA5-4C74-BAAC-A11668E8A8E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99000ADE-F51B-421A-B695-622FC23EF1DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39475C1E-016C-44C4-9433-E9D9FBADA853}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79EA5216-AFF1-4CEF-BA45-AC57BCB02A04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{248029CA-384F-480C-A872-4302A98BBA18}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C82F237D-4C86-4DD3-8BEA-66816083B59D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{584FCD21-F7BC-4449-AC2C-6BABFBC2FE1B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{508CA7B6-40D2-4E98-9136-AA92E7687299}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4129104A-A438-4C5D-9503-B564F1447A08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92BADBA7-2697-40A4-8EE9-2D94321CD06B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D33C880-06AF-4A3D-A19D-8331B3803A9A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68F13659-ABDF-478A-A2DA-15C9AFAE2A55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F3E1791-593A-4FC3-8677-D2572F788CCA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6511,7 +6511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0080C35-C6F5-4D1F-836C-F8F0BB0A022F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ECF0CC-37CC-4BB9-9CD7-FDB79CD356E3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7798,18 +7798,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56F9003A-3966-4608-8CBD-E84DA20C561D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17B96DD5-2B90-47C3-B34C-8DFD1FFBBF17}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{231C54B2-D5F1-4319-B866-93D82A39F4C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{593CFB24-8122-4CA6-AF1A-86C23A80F61C}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A3B6B2C5-9F48-4367-AC90-728B234ADF55}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA8F61F3-FC4B-4DB7-9073-F38516E40AE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6769F8AC-C4D7-41E8-B722-8BA0BF4CF5C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{581C341C-8CD8-4DAC-A88F-CD6F7FF03662}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70DDC9F6-4662-448F-9A8F-848013E5980D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4743C8B1-5DE5-41B5-86E4-54EE0953EE96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93B98C70-140D-48D7-8A71-BF2048207C45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0905CD68-7E6D-4A72-8A1D-85853DA2C9B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6F61FA1-3A20-40C7-8680-66DE63719B1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D106D722-87D3-408A-A668-082DF5073009}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95570928-EE4B-4FA5-A108-3A1920A14D8E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05492539-2E8F-48A8-9CCD-0E1B2A20C426}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{45E7488D-832A-489A-AE6D-A15896FBA155}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5554530-7B60-4DA6-8D09-766CC3CE677E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B37EBA9-FB62-4EB8-B4C6-9E3B03454D32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90F472AE-9672-4DAD-98EA-68EE4A946F51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BBD802C-3E3C-41E1-B3C0-A177CF006936}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFF2E13E-345B-4EAF-B6AE-5538A942B02E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{307B1E36-279E-4CEC-9E34-2655ADBA04B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C672D1B-F394-4EFB-967A-E3AB8EBDADC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7822,7 +7822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A0AA9-6FA2-4294-88F6-363E9F035A84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3228DF20-A330-4C93-9E71-6D64905D08E4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9109,18 +9109,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4212E2B0-74B8-4C09-8169-390F0689D3DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B83855D8-7FAE-484B-B35E-37ABDFCD7442}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DB21E069-46A2-458E-A662-ED5FCDD11A13}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{488391F7-9D53-4136-BAFB-96E73F5A5F7D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EA592AA6-BC33-413A-ADF8-8A1B04034FE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0F5C1D7-5DE6-465E-8B11-C30C246CF313}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6D39167-3D32-4029-A64C-AE7A3DEB71E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94696619-5ACA-4AFC-A5C4-B7E5BEC93B3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7BF1FBE-A0EC-4549-96C9-FD921E275570}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E3F5723-4E15-43E3-A736-A4892611402B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EE11CA2-D04D-4552-839B-EA3D4E6EEFCC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF7C883D-5751-4AE1-A5E3-3FC110A1C723}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD2661EC-FE8A-44B2-B170-55D6D48CAB97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{414BF2A9-A889-409F-BC65-BD92BBAA99A1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DCCC1FDE-CADD-4ADC-82E3-E12DEA11EDAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68DECC40-D204-41CF-AE5E-1C9F781212B2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4B37C27A-D1E9-4500-BEBC-29B44FD2088B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B1C18B9-AE65-48AC-AAB8-87217F99A382}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D766F04-1906-4F2E-8CB3-47633EB623D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2E190E5-14E8-4CEB-8921-7FB566B8FF55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DC1C267-CE8F-41E7-8644-97A15F1993F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C53448EB-955C-4308-91C1-5F805B8471A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{940E0B8D-E3EB-4F8F-A29A-D6BA09DBE2A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A754FA0A-2E7C-4D46-99EC-12CC48EB5A56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9133,7 +9133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A41A0A-2D5C-4D80-8497-CBC66FB31D6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AA53BB-513A-43B8-9C10-18EA3ECED84C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10420,18 +10420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1ED710F-AB28-409B-AFE0-38911186CC10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BC855C7-7634-4389-8A31-72EDC5F43812}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E5DB81D-61A9-4306-BD1D-5DF1FE80C7A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35754094-CBE0-4D5D-A47D-178ED99529E9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E2BCBEAE-EDCA-4CFB-8ADE-D684A27D90DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{697556BE-0C19-438B-9118-EB1A2396042C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD57A47D-9FBE-4A97-B9D3-D78311974945}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC417211-B5A3-4224-8A27-10E35B28A6A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3B3F3CD-202E-4278-85AE-7610A67C6B68}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F09D502-86C1-4663-B9D3-AE0734B62FB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3F25F04-C989-4C60-9EFF-989AE3644D27}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B3324CE-A599-4C89-8E61-710637F7BCED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA73ADCB-0285-4F55-8D74-FF580CE74328}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E18C2973-4390-4BF2-9405-0D6DE609157A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8FB7E0E0-9F22-4DBB-872D-690F0888477D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9106E58-7AB0-43BE-9090-4D31FE7BCDA3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5F38A059-08A7-4604-97FD-F5E812ED3776}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1AA29B88-D854-4F07-B8B2-B6F39C014FEB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62271157-F8C9-4B71-A1D8-483660381562}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D4BB58F-107D-4207-BAF4-756B84722381}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF310D72-1D65-4238-AC1E-9B61DC4966A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D5F72D3-00D0-46F9-ABC0-75B0508A167B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D32831DB-EFD5-49F1-B7A6-560C0FB48299}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AF6D364-A0B7-4835-963F-ABC25E81BE1F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10444,7 +10444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8AE508-B9B5-4007-86DF-EB882B0A3D60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316BFC39-5280-4C6E-9D4B-554C138D40AC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11731,18 +11731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA9FB782-CF5A-47ED-90FF-0033E630BBB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7990891-3B9D-4146-AE93-108039C66BB0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{706513A1-3A3C-4586-9FEA-07D413CD6A56}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{040FEB39-8E7E-47C1-B029-1238FC4B5232}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EED86668-F34F-4286-BF6D-9530A7992AF4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3214CB99-7BF5-4E59-A922-C1D53681AA63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B43D9D7-98C2-4BCD-9D94-C3735723FA92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6933711A-32B7-4FD8-80C2-1AAA343774F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E60C8A9-BA73-40C6-9113-D4771DD73DD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{205EC645-7C2B-44B4-B7EE-10E11F89C685}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4BA5E9A-1160-4462-B752-A079526E30F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6705D1E9-5A5E-49DF-BCBB-0BC023B77DB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8460EFB4-F061-4428-B526-5D4FB740B7FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AFB566D-7DC5-4DE1-B380-5C5A9AED225A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B44BB700-4750-412C-9B7A-EACE2376F465}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{360CE8E1-2551-45E4-85E2-FD4E451C609F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A8C5E4C5-7935-4C88-AA6B-B142864B53DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59C4009B-9EAC-469F-97E1-6122C4A7EFB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C775CA03-A996-4B3A-9284-F396762C49B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C026ED7C-C6AE-4F2E-BFEE-5A2F9A177917}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1435F9AF-436F-4393-AA7F-E34BC267EE83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D21618C-8929-43BD-A075-BF49A26F8074}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{697E1E0E-F89D-4640-80F1-EB59EFE54E38}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C024D85D-928F-4657-90DA-A604500ACA8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11755,7 +11755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0FD08B-FFB9-4F93-AB24-6852D34FCB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB2BDA3-DE45-416F-8747-707E195697AC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13042,18 +13042,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C74311C2-50E2-41C3-A614-EA964DBB1831}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0D10836-3F10-4997-B39D-70E3ADEF7EEC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97BB8FCD-4EA2-4803-9782-8C6DB3426308}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9311868F-7347-4E2A-A490-865D758F70C6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C1418167-F731-417A-BB6A-2FACF148D3CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{537A2D07-B9B9-4B30-AE15-2EEAC4B59585}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CA3123D-2177-4C69-B5C0-1D6494817B31}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36C3C650-EEB5-4F20-9813-9EBCDECFAC82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0255E8C-AF65-4722-AB88-254E3A6E6574}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B563219-D320-4E20-AFB9-0E5AFF52ED0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70989CC5-E443-4F87-B9E0-884006DEC7A6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FA7DB84-31C3-43F3-AA92-9A044611118C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27E903EA-EB6B-4A30-AEAD-62EF07444CE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BDA4166-3030-49B7-84F4-7FCA9AED29CB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E702D9B0-DC45-4EE0-AE60-8241FC7EB17E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B67A385-6720-4FE5-95F2-DBBF0AB4B049}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1B875DD0-AF60-4D4D-A762-CC5AB4052C03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8BA8A7D5-B018-49F1-9BC4-35239C1BBC04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{222E305E-8588-4171-846E-39D8A49E2B62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D68A4B77-5F4A-49D2-8C54-0FF2AA75A5E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBB581BF-4A59-4F30-9440-7F556C8102E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BBE7193-FF94-45EE-8EB5-784DA9C504D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{765EA246-DB1B-4C1D-8F0B-F3C613AF92CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C7F6794-FBCE-4342-A49D-51667CA54963}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13066,7 +13066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBE9D41-1AF0-45BB-8FE8-5F1F08907E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96306927-988E-4451-B369-F8AC1FA2C653}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14353,18 +14353,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A877BF02-3635-4555-A92F-69FCAA8D8F95}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC8147BF-B413-4207-AF8A-EBFEA8BB5D2D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70197CC3-6EA9-41DF-AB80-F8E9CA1EDFFB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28C7FDF4-6B22-451C-B8C6-CAAEEF5054DF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{39E88237-848F-459A-A522-9F01E68AFCE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{931F8F23-B833-4C8D-9285-AB7E18632FEB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23B937EC-52DE-4495-A354-21FE46D9085D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7772614A-F9B3-428D-B2AE-F0A4DA483E4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4915935-31BE-48FE-95DA-347D3518147E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCDA64D5-655A-46C3-AA51-39CF577FC023}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0B3B819-2280-4A58-8076-20E6C2905EF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DF4438F-C253-4508-8E12-53B9DF4AE241}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E291EDE-A629-44DA-8970-3F5AFC9E36FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F9EE051-A02F-4CF0-AE88-FB86931162C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{15BE3FC4-C37C-4A88-8F57-54C0914FB024}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECA90C2C-1089-4013-A873-7167375B6376}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AD845EBE-32A4-423E-BBD7-1A19639B18A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A9AD332-A961-4E7D-B051-F28A2483723E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D362DD99-91B9-41EF-8076-01F807700A15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2607442C-2944-46B4-99F4-471EBDDBFAAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B82DCCFB-C69E-45B6-BEDC-3824E3C6BFE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A352BAA-44B6-4485-8099-77BF2D874F46}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E3CA260-BB26-4121-BACC-D0429C1EEE81}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C790878-280A-4666-8BEA-057FA26A9196}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14377,7 +14377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F058B721-A8FF-4AEA-8F22-C02D33E703A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98EECE7-B8FC-4D56-AA52-5F9A1B12CF8B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15656,18 +15656,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{952A168E-7095-4F25-AC27-3FC6B8DA2726}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B12BA07-D2EB-42C6-86A9-538CA3189FD9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFC78781-243D-4DE5-9A0B-8F89657D16D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52E71B11-3576-4AB0-B68F-70F698C3ADE1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C97D3828-68B3-4272-8D59-E5227D0DAD63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF305432-6F61-4FE1-9A13-725EC5B33F02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52293236-C4DF-4BCA-9C7A-03A310BEBDEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97C99D61-1D6E-4A97-B655-78D88B5E3316}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0CE6F42-9374-4458-93BB-CDF6681D3F4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD5FAA77-7D4F-457E-B40F-0EF0B16FCA66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ACBF31C7-6610-49C7-86BF-2E07FF8097B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61594E63-1799-4F8C-AAE1-E11AA5ABC1CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B58D552-D933-491F-B58F-668E032067E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB183489-01C5-4719-A65E-B17FAB040059}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0159A335-B7C0-46AC-AE8F-67308703640B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AB07D93-5BDB-4BBE-AC81-788240B2E3B6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F437F773-3A3D-4C63-ADBE-075254F0BBC4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{713F59ED-9E87-4974-AD47-BE9515DCA76F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06DDB4E0-13A4-47F9-BDEF-B981B7581BBF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9232B3A-E5F7-48F4-ADF5-84DCFAB745A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C40AE625-295C-4FDA-B7FF-9DC65F73BFFE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F57A8031-2E5D-415C-B17A-320F0F2BCDD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13916E71-1FFE-4FD5-8EAC-99A9B7938B87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94DBC89B-8F20-4A2C-BEC6-C3349BBB4C17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15680,7 +15680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A985BDC-414A-494D-8838-BB026DE5BB60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29D08A-9623-4008-8FB1-C444CE0A1679}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16959,18 +16959,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4F508AC-67FC-4C8F-924B-0968E4C7C3EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DB9B09C-DF2F-4B0C-9253-4BAEA7509128}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BE944FF-83EF-49CF-98B1-D9EC01D46CD9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDFFC921-7D31-4F79-9CB3-2E1108090969}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EAE5972E-F91E-482C-8F88-68126C9032CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B2E37C4-9587-4BFC-844D-54A91DDC8E13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCD65EE5-B849-4AC1-9EE5-ABBFFF018E2F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A791402-D710-4FED-A25C-8ECB3444C2E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AD311C8-3DA6-48B6-9527-2593F92E2F78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C7933F7-7B5C-4E78-9890-A93C0049BC3D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4553F796-FEDA-45C6-97E0-E52F92417515}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{389C3198-9642-404B-89C2-4036EF63C18C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB91928D-891C-45EF-87F1-EB11CE3FD5D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5133C73C-CA91-4BC5-A98E-BEB6623BF2E2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B67A396-60F3-4643-8B09-666F9B9883FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80BFCA34-48D9-431B-AD5E-7B447A772655}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F5D20352-A488-449F-A712-F0DBE660C651}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6838AA5A-6C7B-40DB-8667-523218E7A20E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6F0BDEE-55CA-496F-A7F4-02478BB4D76B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86D6E0E6-A76E-485F-B404-8B92739367B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{981C9B56-87F3-4BB1-B331-45C0ACF95807}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8AA96C2-4775-4990-946B-D22FE5D11B2D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{138F01A8-41F2-48C5-8682-BB274DBC64C1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCA42573-9F0B-43A1-AB49-C7679AF2987E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
